--- a/BackTest/2019-10-27 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-27 BackTest FZZ.xlsx
@@ -5666,1702 +5666,1500 @@
         <v>7.063333333333344</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>7.04</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8144.1657</v>
+      </c>
+      <c r="G152" t="n">
+        <v>7.100000000000011</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="C153" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E153" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F153" t="n">
+        <v>34730.6006</v>
+      </c>
+      <c r="G153" t="n">
+        <v>7.14000000000001</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C154" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="E154" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F154" t="n">
+        <v>403.6437</v>
+      </c>
+      <c r="G154" t="n">
+        <v>7.160000000000011</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="C155" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E155" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>117556.2737</v>
+      </c>
+      <c r="G155" t="n">
+        <v>7.18000000000001</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E156" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G156" t="n">
+        <v>7.196666666666677</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C157" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D157" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E157" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F157" t="n">
+        <v>11</v>
+      </c>
+      <c r="G157" t="n">
+        <v>7.27000000000001</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C158" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E158" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F158" t="n">
+        <v>100</v>
+      </c>
+      <c r="G158" t="n">
+        <v>7.340000000000011</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C159" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E159" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2217.139</v>
+      </c>
+      <c r="G159" t="n">
+        <v>7.410000000000011</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C160" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F160" t="n">
+        <v>11</v>
+      </c>
+      <c r="G160" t="n">
+        <v>7.406666666666677</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C161" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E161" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F161" t="n">
+        <v>55.4444</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7.396666666666676</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="C162" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E162" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="F162" t="n">
+        <v>200</v>
+      </c>
+      <c r="G162" t="n">
+        <v>7.386666666666676</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C163" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="D163" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F163" t="n">
+        <v>56</v>
+      </c>
+      <c r="G163" t="n">
+        <v>7.363333333333344</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="C164" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F164" t="n">
+        <v>25</v>
+      </c>
+      <c r="G164" t="n">
+        <v>7.340000000000011</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C165" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D165" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E165" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F165" t="n">
+        <v>33365.9343</v>
+      </c>
+      <c r="G165" t="n">
+        <v>7.316666666666677</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C166" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E166" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7.310000000000009</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C167" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E167" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>7.310000000000009</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C168" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D168" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E168" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7.323333333333344</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C169" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E169" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F169" t="n">
+        <v>197.4008</v>
+      </c>
+      <c r="G169" t="n">
+        <v>7.323333333333344</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C170" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D170" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E170" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4558.276</v>
+      </c>
+      <c r="G170" t="n">
+        <v>7.306666666666678</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C171" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F171" t="n">
+        <v>59448.595</v>
+      </c>
+      <c r="G171" t="n">
+        <v>7.260000000000012</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C172" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D172" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E172" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F172" t="n">
+        <v>79294.4898</v>
+      </c>
+      <c r="G172" t="n">
+        <v>7.206666666666679</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C173" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D173" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E173" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1234</v>
+      </c>
+      <c r="G173" t="n">
+        <v>7.180000000000011</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D174" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="E174" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="F174" t="n">
+        <v>555</v>
+      </c>
+      <c r="G174" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C175" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D175" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E175" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F175" t="n">
+        <v>17269.7696</v>
+      </c>
+      <c r="G175" t="n">
+        <v>7.176666666666679</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C176" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D176" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E176" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F176" t="n">
+        <v>129420.9916</v>
+      </c>
+      <c r="G176" t="n">
+        <v>7.170000000000012</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C177" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D177" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="E177" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F177" t="n">
+        <v>200842.2705</v>
+      </c>
+      <c r="G177" t="n">
+        <v>7.163333333333346</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C178" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D178" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E178" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F178" t="n">
+        <v>171067.2245</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7.163333333333346</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D179" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F179" t="n">
+        <v>28085.4602</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7.166666666666679</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D180" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E180" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F180" t="n">
+        <v>125000</v>
+      </c>
+      <c r="G180" t="n">
+        <v>7.170000000000012</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C181" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D181" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E181" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F181" t="n">
+        <v>26000</v>
+      </c>
+      <c r="G181" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E182" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F182" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G182" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C183" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="D183" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E183" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="F183" t="n">
+        <v>36558.3213</v>
+      </c>
+      <c r="G183" t="n">
+        <v>7.166666666666679</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C184" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E184" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F184" t="n">
+        <v>54071.8563</v>
+      </c>
+      <c r="G184" t="n">
+        <v>7.166666666666679</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C185" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D185" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E185" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F185" t="n">
+        <v>23000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>7.160000000000011</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C186" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D186" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E186" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F186" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G186" t="n">
+        <v>7.163333333333345</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C187" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D187" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E187" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F187" t="n">
+        <v>23927.0962</v>
+      </c>
+      <c r="G187" t="n">
+        <v>7.163333333333344</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F188" t="n">
+        <v>22054.1143</v>
+      </c>
+      <c r="G188" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C189" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D189" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12852.5104</v>
+      </c>
+      <c r="G189" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C190" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D190" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E190" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F190" t="n">
+        <v>99563.45879999999</v>
+      </c>
+      <c r="G190" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D191" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E191" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F191" t="n">
+        <v>13242.1199</v>
+      </c>
+      <c r="G191" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K191" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="D192" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E192" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="F192" t="n">
+        <v>690993.3537</v>
+      </c>
+      <c r="G192" t="n">
+        <v>7.170000000000011</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="D193" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E193" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="F193" t="n">
+        <v>333410.54</v>
+      </c>
+      <c r="G193" t="n">
+        <v>7.163333333333344</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="C152" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="D152" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="E152" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="F152" t="n">
-        <v>8144.1657</v>
-      </c>
-      <c r="G152" t="n">
-        <v>7.100000000000011</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="C153" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D153" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="E153" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F153" t="n">
-        <v>34730.6006</v>
-      </c>
-      <c r="G153" t="n">
-        <v>7.14000000000001</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="C154" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="D154" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="E154" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="F154" t="n">
-        <v>403.6437</v>
-      </c>
-      <c r="G154" t="n">
-        <v>7.160000000000011</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C155" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E155" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>117556.2737</v>
-      </c>
-      <c r="G155" t="n">
-        <v>7.18000000000001</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C156" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E156" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G156" t="n">
-        <v>7.196666666666677</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C157" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D157" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E157" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F157" t="n">
-        <v>11</v>
-      </c>
-      <c r="G157" t="n">
-        <v>7.27000000000001</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C158" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D158" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E158" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F158" t="n">
-        <v>100</v>
-      </c>
-      <c r="G158" t="n">
-        <v>7.340000000000011</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C159" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D159" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E159" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2217.139</v>
-      </c>
-      <c r="G159" t="n">
-        <v>7.410000000000011</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C160" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D160" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E160" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F160" t="n">
-        <v>11</v>
-      </c>
-      <c r="G160" t="n">
-        <v>7.406666666666677</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C161" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D161" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E161" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F161" t="n">
-        <v>55.4444</v>
-      </c>
-      <c r="G161" t="n">
-        <v>7.396666666666676</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="C162" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D162" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E162" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="F162" t="n">
-        <v>200</v>
-      </c>
-      <c r="G162" t="n">
-        <v>7.386666666666676</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C163" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="D163" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E163" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="F163" t="n">
-        <v>56</v>
-      </c>
-      <c r="G163" t="n">
-        <v>7.363333333333344</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="C164" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D164" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="E164" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F164" t="n">
-        <v>25</v>
-      </c>
-      <c r="G164" t="n">
-        <v>7.340000000000011</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C165" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D165" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E165" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F165" t="n">
-        <v>33365.9343</v>
-      </c>
-      <c r="G165" t="n">
-        <v>7.316666666666677</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C166" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D166" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E166" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F166" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G166" t="n">
-        <v>7.310000000000009</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C167" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D167" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E167" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F167" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>7.310000000000009</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C168" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D168" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E168" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F168" t="n">
-        <v>10</v>
-      </c>
-      <c r="G168" t="n">
-        <v>7.323333333333344</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C169" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D169" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E169" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F169" t="n">
-        <v>197.4008</v>
-      </c>
-      <c r="G169" t="n">
-        <v>7.323333333333344</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C170" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D170" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E170" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="F170" t="n">
-        <v>4558.276</v>
-      </c>
-      <c r="G170" t="n">
-        <v>7.306666666666678</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C171" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="D171" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E171" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F171" t="n">
-        <v>59448.595</v>
-      </c>
-      <c r="G171" t="n">
-        <v>7.260000000000012</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C172" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D172" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E172" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F172" t="n">
-        <v>79294.4898</v>
-      </c>
-      <c r="G172" t="n">
-        <v>7.206666666666679</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="C173" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D173" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E173" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1234</v>
-      </c>
-      <c r="G173" t="n">
-        <v>7.180000000000011</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="C174" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D174" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="E174" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="F174" t="n">
-        <v>555</v>
-      </c>
-      <c r="G174" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C175" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D175" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E175" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F175" t="n">
-        <v>17269.7696</v>
-      </c>
-      <c r="G175" t="n">
-        <v>7.176666666666679</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C176" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D176" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E176" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F176" t="n">
-        <v>129420.9916</v>
-      </c>
-      <c r="G176" t="n">
-        <v>7.170000000000012</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="C177" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D177" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E177" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F177" t="n">
-        <v>200842.2705</v>
-      </c>
-      <c r="G177" t="n">
-        <v>7.163333333333346</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C178" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D178" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E178" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F178" t="n">
-        <v>171067.2245</v>
-      </c>
-      <c r="G178" t="n">
-        <v>7.163333333333346</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C179" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D179" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E179" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F179" t="n">
-        <v>28085.4602</v>
-      </c>
-      <c r="G179" t="n">
-        <v>7.166666666666679</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C180" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D180" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E180" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F180" t="n">
-        <v>125000</v>
-      </c>
-      <c r="G180" t="n">
-        <v>7.170000000000012</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C181" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D181" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E181" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F181" t="n">
-        <v>26000</v>
-      </c>
-      <c r="G181" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C182" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D182" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E182" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F182" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G182" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C183" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D183" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E183" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="F183" t="n">
-        <v>36558.3213</v>
-      </c>
-      <c r="G183" t="n">
-        <v>7.166666666666679</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C184" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D184" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E184" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F184" t="n">
-        <v>54071.8563</v>
-      </c>
-      <c r="G184" t="n">
-        <v>7.166666666666679</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C185" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D185" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E185" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F185" t="n">
-        <v>23000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>7.160000000000011</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C186" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D186" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E186" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F186" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G186" t="n">
-        <v>7.163333333333345</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C187" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D187" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E187" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F187" t="n">
-        <v>23927.0962</v>
-      </c>
-      <c r="G187" t="n">
-        <v>7.163333333333344</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C188" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D188" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E188" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F188" t="n">
-        <v>22054.1143</v>
-      </c>
-      <c r="G188" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C189" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D189" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E189" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F189" t="n">
-        <v>12852.5104</v>
-      </c>
-      <c r="G189" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C190" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D190" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E190" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F190" t="n">
-        <v>99563.45879999999</v>
-      </c>
-      <c r="G190" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C191" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D191" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E191" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F191" t="n">
-        <v>13242.1199</v>
-      </c>
-      <c r="G191" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C192" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D192" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E192" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="F192" t="n">
-        <v>690993.3537</v>
-      </c>
-      <c r="G192" t="n">
-        <v>7.170000000000011</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="C193" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="D193" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="E193" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="F193" t="n">
-        <v>333410.54</v>
-      </c>
-      <c r="G193" t="n">
-        <v>7.163333333333344</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7389,15 +7187,15 @@
         <v>7.160000000000011</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7430,15 +7228,15 @@
         <v>7.163333333333344</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,15 +7269,15 @@
         <v>7.176666666666677</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7512,15 +7310,15 @@
         <v>7.196666666666676</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,15 +7351,15 @@
         <v>7.22000000000001</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,9 +7398,11 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+        <v>7.25</v>
+      </c>
+      <c r="K199" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7641,9 +7441,11 @@
         <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+        <v>7.28</v>
+      </c>
+      <c r="K200" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,9 +7484,11 @@
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+        <v>7.32</v>
+      </c>
+      <c r="K201" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7717,13 +7521,17 @@
         <v>7.356666666666676</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K202" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7762,7 +7570,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7801,7 +7611,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7840,7 +7652,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7879,7 +7693,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7918,7 +7734,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7957,7 +7775,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7996,7 +7816,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8035,7 +7857,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8074,7 +7898,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8113,7 +7939,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8152,7 +7980,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,7 +8021,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8230,7 +8062,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8269,7 +8103,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8308,7 +8144,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8347,7 +8185,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8386,7 +8226,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8425,7 +8267,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8464,7 +8308,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8503,7 +8349,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8542,7 +8390,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8581,7 +8431,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8620,7 +8472,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8659,7 +8513,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8698,7 +8554,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8737,7 +8595,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8776,7 +8636,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8815,7 +8677,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8854,7 +8718,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8893,7 +8759,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8932,7 +8800,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,7 +8841,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9010,7 +8882,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9049,7 +8923,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9088,7 +8964,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9127,7 +9005,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9166,7 +9046,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9205,7 +9087,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9244,7 +9128,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,7 +9169,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9322,7 +9210,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9358,540 +9248,634 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>7.17</v>
+      </c>
       <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D245" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F245" t="n">
+        <v>10</v>
+      </c>
+      <c r="G245" t="n">
+        <v>7.400000000000009</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="C246" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D246" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F246" t="n">
+        <v>177875.3018</v>
+      </c>
+      <c r="G246" t="n">
+        <v>7.363333333333343</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C247" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D247" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F247" t="n">
+        <v>140</v>
+      </c>
+      <c r="G247" t="n">
+        <v>7.34000000000001</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C248" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="F248" t="n">
+        <v>4995.5257</v>
+      </c>
+      <c r="G248" t="n">
+        <v>7.306666666666676</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D249" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E249" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F249" t="n">
+        <v>4363.0813</v>
+      </c>
+      <c r="G249" t="n">
+        <v>7.310000000000008</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C250" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D250" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E250" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F250" t="n">
+        <v>132823.1198</v>
+      </c>
+      <c r="G250" t="n">
+        <v>7.293333333333343</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C251" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F251" t="n">
+        <v>11</v>
+      </c>
+      <c r="G251" t="n">
+        <v>7.29000000000001</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C252" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F252" t="n">
+        <v>134921.3403</v>
+      </c>
+      <c r="G252" t="n">
+        <v>7.286666666666677</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C253" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D253" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="E253" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F253" t="n">
+        <v>30804.7384</v>
+      </c>
+      <c r="G253" t="n">
+        <v>7.283333333333343</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E254" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F254" t="n">
+        <v>10</v>
+      </c>
+      <c r="G254" t="n">
+        <v>7.283333333333343</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D255" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>180477.8956</v>
+      </c>
+      <c r="G255" t="n">
+        <v>7.283333333333343</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C256" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="D256" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="F256" t="n">
+        <v>436883.6905963589</v>
+      </c>
+      <c r="G256" t="n">
+        <v>7.43000000000001</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="C257" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="E257" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F257" t="n">
+        <v>10</v>
+      </c>
+      <c r="G257" t="n">
+        <v>7.553333333333343</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F258" t="n">
+        <v>75682.4146</v>
+      </c>
+      <c r="G258" t="n">
+        <v>7.66000000000001</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="C259" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D259" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F259" t="n">
+        <v>44</v>
+      </c>
+      <c r="G259" t="n">
+        <v>7.626666666666676</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="L259" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C245" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="D245" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="E245" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F245" t="n">
-        <v>10</v>
-      </c>
-      <c r="G245" t="n">
-        <v>7.400000000000009</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C246" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D246" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E246" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F246" t="n">
-        <v>177875.3018</v>
-      </c>
-      <c r="G246" t="n">
-        <v>7.363333333333343</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C247" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D247" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E247" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F247" t="n">
-        <v>140</v>
-      </c>
-      <c r="G247" t="n">
-        <v>7.34000000000001</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C248" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D248" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E248" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="F248" t="n">
-        <v>4995.5257</v>
-      </c>
-      <c r="G248" t="n">
-        <v>7.306666666666676</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C249" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D249" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E249" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F249" t="n">
-        <v>4363.0813</v>
-      </c>
-      <c r="G249" t="n">
-        <v>7.310000000000008</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C250" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D250" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E250" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="F250" t="n">
-        <v>132823.1198</v>
-      </c>
-      <c r="G250" t="n">
-        <v>7.293333333333343</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C251" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D251" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E251" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F251" t="n">
-        <v>11</v>
-      </c>
-      <c r="G251" t="n">
-        <v>7.29000000000001</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C252" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D252" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E252" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F252" t="n">
-        <v>134921.3403</v>
-      </c>
-      <c r="G252" t="n">
-        <v>7.286666666666677</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C253" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="D253" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="E253" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F253" t="n">
-        <v>30804.7384</v>
-      </c>
-      <c r="G253" t="n">
-        <v>7.283333333333343</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C254" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D254" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E254" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F254" t="n">
-        <v>10</v>
-      </c>
-      <c r="G254" t="n">
-        <v>7.283333333333343</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C255" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D255" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E255" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F255" t="n">
-        <v>180477.8956</v>
-      </c>
-      <c r="G255" t="n">
-        <v>7.283333333333343</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="C256" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="D256" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="E256" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F256" t="n">
-        <v>436883.6905963589</v>
-      </c>
-      <c r="G256" t="n">
-        <v>7.43000000000001</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="C257" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="D257" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="E257" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="F257" t="n">
-        <v>10</v>
-      </c>
-      <c r="G257" t="n">
-        <v>7.553333333333343</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="C258" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D258" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F258" t="n">
-        <v>75682.4146</v>
-      </c>
-      <c r="G258" t="n">
-        <v>7.66000000000001</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="C259" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D259" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E259" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="F259" t="n">
-        <v>44</v>
-      </c>
-      <c r="G259" t="n">
-        <v>7.626666666666676</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
-        <v>1</v>
+        <v>1.053577405857741</v>
       </c>
     </row>
     <row r="260">
@@ -16847,17 +16831,13 @@
         <v>7.086666666666676</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="K458" t="n">
-        <v>7.07</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
@@ -16886,22 +16866,14 @@
         <v>7.063333333333342</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="K459" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16929,22 +16901,14 @@
         <v>7.060000000000009</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K460" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16978,14 +16942,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17013,22 +16971,14 @@
         <v>7.08000000000001</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="K462" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17056,22 +17006,14 @@
         <v>7.096666666666677</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K463" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17099,22 +17041,14 @@
         <v>7.13000000000001</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K464" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17142,22 +17076,14 @@
         <v>7.14000000000001</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K465" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17185,22 +17111,14 @@
         <v>7.17000000000001</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K466" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17228,22 +17146,14 @@
         <v>7.190000000000009</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
-      <c r="J467" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K467" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17271,22 +17181,14 @@
         <v>7.216666666666677</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
-      <c r="J468" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K468" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
+      <c r="L468" t="inlineStr"/>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17314,22 +17216,14 @@
         <v>7.216666666666677</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
       </c>
-      <c r="J469" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K469" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
+      <c r="L469" t="inlineStr"/>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17357,22 +17251,14 @@
         <v>7.216666666666677</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
       </c>
-      <c r="J470" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K470" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
+      <c r="L470" t="inlineStr"/>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -17400,22 +17286,14 @@
         <v>7.26000000000001</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
       </c>
-      <c r="J471" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K471" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
+      <c r="L471" t="inlineStr"/>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -17443,22 +17321,14 @@
         <v>7.303333333333343</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
       </c>
-      <c r="J472" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K472" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -17492,14 +17362,8 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
+      <c r="L473" t="inlineStr"/>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -17533,14 +17397,8 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
+      <c r="L474" t="inlineStr"/>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17568,22 +17426,14 @@
         <v>7.263333333333343</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
       </c>
-      <c r="J475" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K475" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17617,14 +17467,8 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
+      <c r="L476" t="inlineStr"/>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17658,14 +17502,8 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17699,14 +17537,8 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
+      <c r="L478" t="inlineStr"/>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17740,14 +17572,8 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
+      <c r="L479" t="inlineStr"/>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17781,14 +17607,8 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
+      <c r="L480" t="inlineStr"/>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17822,14 +17642,8 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
+      <c r="L481" t="inlineStr"/>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17863,14 +17677,8 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17904,14 +17712,8 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17945,14 +17747,8 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
+      <c r="L484" t="inlineStr"/>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17980,22 +17776,14 @@
         <v>7.203333333333344</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
       </c>
-      <c r="J485" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K485" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
+      <c r="L485" t="inlineStr"/>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18023,22 +17811,14 @@
         <v>7.203333333333344</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
       </c>
-      <c r="J486" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K486" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
+      <c r="L486" t="inlineStr"/>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18072,14 +17852,8 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
+      <c r="L487" t="inlineStr"/>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18107,22 +17881,14 @@
         <v>7.153333333333346</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
       </c>
-      <c r="J488" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K488" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18150,22 +17916,14 @@
         <v>7.146666666666679</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
       </c>
-      <c r="J489" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K489" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
+      <c r="L489" t="inlineStr"/>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18193,22 +17951,14 @@
         <v>7.143333333333345</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
-      <c r="J490" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K490" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
+      <c r="L490" t="inlineStr"/>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18236,22 +17986,14 @@
         <v>7.143333333333345</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
       </c>
-      <c r="J491" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K491" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr"/>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18279,22 +18021,14 @@
         <v>7.163333333333345</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
       </c>
-      <c r="J492" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K492" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18322,22 +18056,14 @@
         <v>7.180000000000011</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
       </c>
-      <c r="J493" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K493" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
+      <c r="L493" t="inlineStr"/>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18365,22 +18091,14 @@
         <v>7.193333333333345</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K494" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
+      <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18408,22 +18126,14 @@
         <v>7.193333333333345</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K495" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18451,22 +18161,14 @@
         <v>7.183333333333344</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K496" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18494,22 +18196,14 @@
         <v>7.173333333333344</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K497" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
+      <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18537,22 +18231,14 @@
         <v>7.18000000000001</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K498" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18580,22 +18266,14 @@
         <v>7.196666666666677</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
       </c>
-      <c r="J499" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="K499" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18623,22 +18301,14 @@
         <v>7.190000000000011</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
       </c>
-      <c r="J500" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K500" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
+      <c r="L500" t="inlineStr"/>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -18666,22 +18336,14 @@
         <v>7.163333333333345</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
       </c>
-      <c r="J501" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K501" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -18709,22 +18371,14 @@
         <v>7.146666666666678</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
       </c>
-      <c r="J502" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K502" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
+      <c r="L502" t="inlineStr"/>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -18752,22 +18406,14 @@
         <v>7.143333333333344</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
       </c>
-      <c r="J503" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="K503" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18795,22 +18441,14 @@
         <v>7.160000000000011</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
       </c>
-      <c r="J504" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K504" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18838,22 +18476,14 @@
         <v>7.170000000000011</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
       </c>
-      <c r="J505" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K505" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
+      <c r="L505" t="inlineStr"/>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18881,22 +18511,14 @@
         <v>7.186666666666678</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
       </c>
-      <c r="J506" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K506" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
+      <c r="L506" t="inlineStr"/>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18924,22 +18546,14 @@
         <v>7.183333333333344</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
       </c>
-      <c r="J507" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K507" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
+      <c r="L507" t="inlineStr"/>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18967,22 +18581,14 @@
         <v>7.206666666666677</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
       </c>
-      <c r="J508" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="K508" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="inlineStr"/>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19010,22 +18616,14 @@
         <v>7.223333333333343</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
       </c>
-      <c r="J509" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="K509" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="inlineStr"/>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19053,22 +18651,14 @@
         <v>7.243333333333344</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
       </c>
-      <c r="J510" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K510" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="inlineStr"/>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19096,22 +18686,14 @@
         <v>7.250000000000012</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
       </c>
-      <c r="J511" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K511" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="inlineStr"/>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19139,22 +18721,14 @@
         <v>7.290000000000012</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
       </c>
-      <c r="J512" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="K512" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="inlineStr"/>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19182,22 +18756,14 @@
         <v>7.330000000000013</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
       </c>
-      <c r="J513" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K513" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="inlineStr"/>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19231,14 +18797,8 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="inlineStr"/>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19272,14 +18832,8 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
+      <c r="L515" t="inlineStr"/>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19313,14 +18867,8 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
+      <c r="L516" t="inlineStr"/>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19354,14 +18902,8 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="inlineStr"/>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19395,14 +18937,8 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
+      <c r="L518" t="inlineStr"/>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19436,14 +18972,8 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
+      <c r="L519" t="inlineStr"/>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19477,14 +19007,8 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
+      <c r="L520" t="inlineStr"/>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19518,14 +19042,8 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19559,14 +19077,8 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19600,14 +19112,8 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19641,14 +19147,8 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
+      <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19682,14 +19182,8 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19723,14 +19217,8 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19764,14 +19252,8 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19805,14 +19287,8 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19846,14 +19322,8 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -19887,14 +19357,8 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="inlineStr"/>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -19928,14 +19392,8 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="inlineStr"/>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19969,14 +19427,8 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
+      <c r="L532" t="inlineStr"/>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20010,14 +19462,8 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
+      <c r="L533" t="inlineStr"/>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20051,14 +19497,8 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
+      <c r="L534" t="inlineStr"/>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20092,14 +19532,8 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
+      <c r="L535" t="inlineStr"/>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20133,14 +19567,8 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="inlineStr"/>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20174,14 +19602,8 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="inlineStr"/>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -20215,14 +19637,8 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="inlineStr"/>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -20256,14 +19672,8 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="inlineStr"/>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -20297,14 +19707,8 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
+      <c r="L540" t="inlineStr"/>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -20338,14 +19742,8 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="inlineStr"/>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -20379,14 +19777,8 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
+      <c r="L542" t="inlineStr"/>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -20420,14 +19812,8 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
+      <c r="L543" t="inlineStr"/>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -20461,14 +19847,8 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
+      <c r="L544" t="inlineStr"/>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -20502,14 +19882,8 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
+      <c r="L545" t="inlineStr"/>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -20543,14 +19917,8 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
+      <c r="L546" t="inlineStr"/>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -20584,14 +19952,8 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
+      <c r="L547" t="inlineStr"/>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -20625,14 +19987,8 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
+      <c r="L548" t="inlineStr"/>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -20666,14 +20022,8 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
+      <c r="L549" t="inlineStr"/>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -20707,14 +20057,8 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
+      <c r="L550" t="inlineStr"/>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -20748,14 +20092,8 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -20789,14 +20127,8 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="inlineStr"/>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -20830,14 +20162,8 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
+      <c r="L553" t="inlineStr"/>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -20871,14 +20197,8 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
+      <c r="L554" t="inlineStr"/>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -20912,14 +20232,8 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
+      <c r="L555" t="inlineStr"/>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -20950,19 +20264,13 @@
         <v>0</v>
       </c>
       <c r="I556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="L556" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="n">
-        <v>1.065721357850071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
@@ -20991,7 +20299,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
@@ -23963,17 +23271,13 @@
         <v>7.223333333333343</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K642" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr"/>
       <c r="M642" t="n">
         <v>1</v>
@@ -24002,15 +23306,15 @@
         <v>7.243333333333344</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="n">
+      <c r="J643" t="n">
         <v>7.24</v>
       </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -24049,9 +23353,7 @@
         <v>0</v>
       </c>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24090,9 +23392,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24131,9 +23431,7 @@
         <v>0</v>
       </c>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24172,9 +23470,7 @@
         <v>0</v>
       </c>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24213,9 +23509,7 @@
         <v>0</v>
       </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24254,9 +23548,7 @@
         <v>0</v>
       </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24295,9 +23587,7 @@
         <v>0</v>
       </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24336,9 +23626,7 @@
         <v>0</v>
       </c>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24377,9 +23665,7 @@
         <v>0</v>
       </c>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="n">
-        <v>7.24</v>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-27 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-27 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-1555866.28641056</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1555866.28641056</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1506072.73311056</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1570969.42181056</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1572376.51771056</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-1570314.57571056</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-1981880.96631056</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-1885263.859510561</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-1982263.859510561</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-1982252.859510561</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-1982252.859510561</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2089211.112210561</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2089199.13311056</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-2095301.2574353</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2022651.9293353</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-2043697.1828353</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-2165270.6570353</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-2418033.2690353</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2418033.2690353</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-2417933.5425353</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-2606707.885635301</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-2606685.6562353</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2606685.6562353</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2670074.6362353</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2753961.177035301</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2660054.545135301</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2659964.545135301</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2684666.134535301</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-2684141.312435301</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-2818680.4375353</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-2818680.4375353</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-2817714.5552353</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-2902498.6649353</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2902498.6649353</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-2908030.4539353</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-2908030.4539353</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-2923066.5330353</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-2923066.5330353</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-2815526.5075353</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2830338.3854353</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-2828454.0963353</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-2834113.9260353</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-2837031.1333353</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-2837031.1333353</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2837019.1333353</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-2837413.8701353</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-2837413.8701353</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2837019.1058353</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-2837019.1058353</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2837019.1058353</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-2837270.1058353</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-2840951.1845353</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-2840951.1845353</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2918077.3144353</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2918077.3144353</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-2918066.3144353</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-2995900.9321353</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-2995900.9321353</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-2995900.9321353</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3008240.9321353</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3008228.4821353</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3013404.472635299</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3013416.472635299</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3029902.065535299</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3029902.065535299</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-2835818.400035299</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-2835828.400035299</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-2711793.2897353</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-2655004.383535299</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-2735136.383535299</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-2735086.383535299</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-2735228.383535299</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2735748.383535299</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-2737298.383535299</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2700108.7305353</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-2652655.0478353</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2527731.1943353</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2477731.1943353</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2477896.1943353</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-2478893.1943353</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-2478893.1943353</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2556038.9643353</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-2556061.9643353</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-2556101.9643353</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-2625523.2573353</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -7216,10 +7216,14 @@
         <v>-6720776.669510604</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="J207" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7249,11 +7253,19 @@
         <v>-6758700.373010604</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="J208" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7294,19 @@
         <v>-6758700.373010604</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="J209" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7335,19 @@
         <v>-6686019.527010604</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="J210" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7376,19 @@
         <v>-6677875.361310604</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="J211" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7417,19 @@
         <v>-6643144.760710604</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="J212" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,15 +7458,19 @@
         <v>-6642741.117010605</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>7.15</v>
       </c>
       <c r="J213" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="K213" t="inlineStr"/>
+        <v>7.14</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,15 +7499,17 @@
         <v>-6525184.843310605</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>7.19</v>
+      </c>
       <c r="J214" t="n">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L214" t="n">
@@ -7490,15 +7540,17 @@
         <v>-6525184.843310605</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J215" t="n">
-        <v>7.15</v>
+        <v>7.14</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L215" t="n">
@@ -7529,11 +7581,19 @@
         <v>-6525173.843310605</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J216" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7562,11 +7622,19 @@
         <v>-6525173.843310605</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="J217" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +7666,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +7705,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7664,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7697,8 +7783,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7730,8 +7822,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7763,8 +7861,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7796,8 +7900,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7829,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7862,8 +7978,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +8014,19 @@
         <v>-6525311.287710605</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="J227" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7928,8 +8058,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7961,8 +8097,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7994,8 +8136,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8027,8 +8175,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8060,8 +8214,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +8250,19 @@
         <v>-6667576.049310604</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J233" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8126,8 +8294,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8156,11 +8330,19 @@
         <v>-6814266.810510605</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="J235" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8192,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8222,11 +8410,19 @@
         <v>-6643199.586010605</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J237" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8258,8 +8454,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8288,15 +8490,19 @@
         <v>-6643199.586010605</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>7.17</v>
       </c>
       <c r="J239" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="K239" t="inlineStr"/>
+        <v>7.14</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8325,17 +8531,15 @@
         <v>-6643199.586010605</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -8366,17 +8570,15 @@
         <v>-6643199.586010605</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L241" t="n">
@@ -8407,17 +8609,15 @@
         <v>-6679757.907310605</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>7.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L242" t="n">
@@ -8448,13 +8648,13 @@
         <v>-6625686.051010605</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>7.16</v>
       </c>
       <c r="J243" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8489,13 +8689,13 @@
         <v>-6648686.051010605</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>7.17</v>
       </c>
       <c r="J244" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8530,13 +8730,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>7.15</v>
       </c>
       <c r="J245" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8571,13 +8771,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>7.17</v>
       </c>
       <c r="J246" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8612,13 +8812,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>7.17</v>
       </c>
       <c r="J247" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8653,13 +8853,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>7.17</v>
       </c>
       <c r="J248" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8694,13 +8894,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>7.17</v>
       </c>
       <c r="J249" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8735,11 +8935,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>7.17</v>
+      </c>
       <c r="J250" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -8774,13 +8976,13 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>7.17</v>
       </c>
       <c r="J251" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -8815,13 +9017,13 @@
         <v>-6952096.591010605</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>7.17</v>
       </c>
       <c r="J252" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -8856,13 +9058,13 @@
         <v>-6914801.334510605</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>7.15</v>
       </c>
       <c r="J253" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -8897,13 +9099,13 @@
         <v>-6907234.533810605</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>7.16</v>
       </c>
       <c r="J254" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -8938,13 +9140,13 @@
         <v>-6445748.196910605</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>7.18</v>
       </c>
       <c r="J255" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -8979,13 +9181,13 @@
         <v>-6439758.196910605</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>7.19</v>
       </c>
       <c r="J256" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9020,13 +9222,13 @@
         <v>-6433758.196910605</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>7.22</v>
       </c>
       <c r="J257" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9061,13 +9263,13 @@
         <v>-6427758.196910605</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>7.25</v>
       </c>
       <c r="J258" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9102,13 +9304,13 @@
         <v>-6419758.196910605</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>7.28</v>
       </c>
       <c r="J259" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9143,13 +9345,13 @@
         <v>-6413758.196910605</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>7.32</v>
       </c>
       <c r="J260" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9184,13 +9386,13 @@
         <v>-6325914.005710605</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>7.35</v>
       </c>
       <c r="J261" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9225,13 +9427,13 @@
         <v>-6260991.647010605</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>7.4</v>
       </c>
       <c r="J262" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9266,13 +9468,13 @@
         <v>-6260991.647010605</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>7.41</v>
       </c>
       <c r="J263" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9307,13 +9509,13 @@
         <v>-6668194.144410605</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>7.41</v>
       </c>
       <c r="J264" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9348,13 +9550,11 @@
         <v>-6647412.473310605</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>7.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9393,7 +9593,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9432,7 +9632,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9471,7 +9671,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9510,7 +9710,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9549,7 +9749,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9588,7 +9788,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9627,7 +9827,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9666,7 +9866,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9705,7 +9905,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9744,7 +9944,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9783,7 +9983,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9822,7 +10022,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9861,7 +10061,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9900,7 +10100,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9939,7 +10139,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9978,7 +10178,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10017,7 +10217,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10056,7 +10256,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10091,13 +10291,11 @@
         <v>-7025680.737510606</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>7.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10136,7 +10334,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10175,7 +10373,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10214,7 +10412,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10249,11 +10447,13 @@
         <v>-6865677.636210606</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>7.33</v>
+      </c>
       <c r="J288" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10292,7 +10492,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10331,7 +10531,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10370,7 +10570,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10409,7 +10609,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10448,7 +10648,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10487,7 +10687,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10526,7 +10726,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10565,7 +10765,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10604,7 +10804,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10643,7 +10843,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10682,7 +10882,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10721,7 +10921,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -10760,7 +10960,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -10799,7 +10999,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -10838,7 +11038,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -10877,7 +11077,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -10916,7 +11116,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -10955,7 +11155,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -10994,7 +11194,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11033,7 +11233,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11072,7 +11272,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11111,7 +11311,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11150,7 +11350,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11189,7 +11389,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11228,7 +11428,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11267,7 +11467,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11306,7 +11506,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11345,7 +11545,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11384,7 +11584,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11423,7 +11623,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11462,7 +11662,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11501,7 +11701,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11540,7 +11740,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11579,7 +11779,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11618,7 +11818,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11657,7 +11857,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11696,7 +11896,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11735,7 +11935,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11774,7 +11974,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11813,7 +12013,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11852,7 +12052,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11891,7 +12091,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11930,7 +12130,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -11969,7 +12169,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12008,7 +12208,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12047,7 +12247,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12086,7 +12286,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12125,7 +12325,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12164,7 +12364,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12203,7 +12403,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12242,7 +12442,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12281,7 +12481,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12320,7 +12520,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12359,7 +12559,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12398,7 +12598,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12437,7 +12637,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12476,7 +12676,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12515,7 +12715,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12554,7 +12754,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12593,7 +12793,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12632,7 +12832,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12671,7 +12871,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12710,7 +12910,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12749,7 +12949,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12788,7 +12988,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12827,7 +13027,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12866,7 +13066,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12905,7 +13105,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12944,7 +13144,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -12983,7 +13183,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13022,7 +13222,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13061,7 +13261,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13100,7 +13300,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13139,7 +13339,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13178,7 +13378,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13217,7 +13417,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13256,7 +13456,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13295,7 +13495,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13334,7 +13534,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13373,7 +13573,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13412,7 +13612,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13451,7 +13651,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13490,7 +13690,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13529,7 +13729,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13568,7 +13768,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13607,7 +13807,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13646,7 +13846,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13685,7 +13885,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13724,7 +13924,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13763,7 +13963,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13802,7 +14002,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13841,7 +14041,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13880,7 +14080,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13919,7 +14119,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13958,7 +14158,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13997,7 +14197,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14036,7 +14236,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14075,7 +14275,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14114,7 +14314,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14153,7 +14353,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14192,7 +14392,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14231,7 +14431,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14270,7 +14470,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14309,7 +14509,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14348,7 +14548,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14387,7 +14587,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14426,7 +14626,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14465,7 +14665,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14504,7 +14704,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14543,7 +14743,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14582,7 +14782,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14621,7 +14821,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14656,11 +14856,13 @@
         <v>-6982693.59210166</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J401" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14695,11 +14897,13 @@
         <v>-6970417.05960166</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J402" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14734,11 +14938,13 @@
         <v>-6970417.05960166</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J403" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14773,11 +14979,13 @@
         <v>-6927146.64600166</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J404" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14816,7 +15024,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14855,7 +15063,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14894,7 +15102,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14933,7 +15141,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14972,7 +15180,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15011,7 +15219,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15050,7 +15258,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15089,7 +15297,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15124,11 +15332,13 @@
         <v>-7596757.94340166</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>7.23</v>
+      </c>
       <c r="J413" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15163,13 +15373,13 @@
         <v>-7595222.84420166</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I414" t="n">
         <v>7.22</v>
       </c>
       <c r="J414" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15204,11 +15414,13 @@
         <v>-7595222.84420166</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J415" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15243,11 +15455,13 @@
         <v>-7594456.72060166</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J416" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15282,11 +15496,13 @@
         <v>-7594446.72060166</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>7.32</v>
+      </c>
       <c r="J417" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15325,7 +15541,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15360,11 +15576,13 @@
         <v>-7595057.179801661</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J419" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15403,7 +15621,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15442,7 +15660,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15477,11 +15695,13 @@
         <v>-7601334.78250166</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J422" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15516,11 +15736,13 @@
         <v>-7601334.78250166</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J423" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15555,11 +15777,13 @@
         <v>-7571137.32590166</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J424" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15594,11 +15818,13 @@
         <v>-7573458.62320166</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>7.32</v>
+      </c>
       <c r="J425" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15633,11 +15859,13 @@
         <v>-7573448.62320166</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J426" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15672,11 +15900,13 @@
         <v>-7573448.62320166</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>7.31</v>
+      </c>
       <c r="J427" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15711,11 +15941,13 @@
         <v>-7573458.62320166</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>7.31</v>
+      </c>
       <c r="J428" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15750,11 +15982,13 @@
         <v>-7723026.92300166</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J429" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15789,11 +16023,13 @@
         <v>-7718489.03500166</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>7.21</v>
+      </c>
       <c r="J430" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15828,11 +16064,13 @@
         <v>-7718589.03500166</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J431" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15867,11 +16105,13 @@
         <v>-7718579.03500166</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J432" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15906,11 +16146,13 @@
         <v>-7764729.15980166</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J433" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15949,7 +16191,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15984,11 +16226,13 @@
         <v>-7806360.30300166</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J435" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16023,11 +16267,13 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J436" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16062,11 +16308,13 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J437" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16101,11 +16349,13 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J438" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16140,11 +16390,13 @@
         <v>-7707215.98210166</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J439" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16179,11 +16431,13 @@
         <v>-7707215.98210166</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J440" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16222,7 +16476,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16261,7 +16515,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16300,7 +16554,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16339,7 +16593,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16378,7 +16632,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16417,7 +16671,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16452,11 +16706,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J447" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16495,7 +16751,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16530,11 +16786,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J449" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16569,11 +16827,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J450" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16612,7 +16872,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16647,11 +16907,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J452" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16686,11 +16948,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J453" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16725,11 +16989,13 @@
         <v>-7721321.83760166</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J454" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16768,7 +17034,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16803,11 +17069,13 @@
         <v>-7727111.83760166</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>7.24</v>
+      </c>
       <c r="J456" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16842,11 +17110,13 @@
         <v>-7727100.726501659</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J457" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16881,11 +17151,13 @@
         <v>-7727100.726501659</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J458" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16920,11 +17192,13 @@
         <v>-7728263.95780166</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J459" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16959,11 +17233,13 @@
         <v>-7728241.73560166</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J460" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17002,7 +17278,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17037,11 +17313,13 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J462" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17076,11 +17354,13 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J463" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17119,7 +17399,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17154,11 +17434,13 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J465" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17193,11 +17475,13 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J466" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17232,11 +17516,13 @@
         <v>-7731208.81800166</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J467" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17271,11 +17557,13 @@
         <v>-7724876.439901659</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J468" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17310,11 +17598,13 @@
         <v>-7724876.439901659</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J469" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17349,11 +17639,13 @@
         <v>-7734276.439901659</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J470" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17388,11 +17680,13 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>7.24</v>
+      </c>
       <c r="J471" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17427,11 +17721,13 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J472" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17466,11 +17762,13 @@
         <v>-7734266.439901659</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J473" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17505,11 +17803,13 @@
         <v>-7751496.439901659</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J474" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17544,11 +17844,13 @@
         <v>-7750856.439901659</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>7.24</v>
+      </c>
       <c r="J475" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17583,11 +17885,13 @@
         <v>-7750856.439901659</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J476" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17622,11 +17926,13 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J477" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17661,11 +17967,13 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J478" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17700,11 +18008,13 @@
         <v>-7750846.439901659</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J479" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17739,11 +18049,13 @@
         <v>-7750836.439901659</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J480" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17778,11 +18090,13 @@
         <v>-7750896.44520166</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>7.35</v>
+      </c>
       <c r="J481" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17821,7 +18135,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17856,19 +18170,21 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>7.35</v>
+      </c>
       <c r="J483" t="n">
-        <v>7.17</v>
+        <v>7.14</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L483" t="n">
-        <v>1.01173640167364</v>
+        <v>1</v>
       </c>
       <c r="M483" t="inlineStr"/>
     </row>
@@ -17898,8 +18214,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17931,8 +18253,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17964,8 +18292,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17994,11 +18328,19 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J487" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18027,11 +18369,19 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J488" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18060,11 +18410,19 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J489" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18093,11 +18451,19 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J490" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18126,11 +18492,19 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J491" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18159,11 +18533,19 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J492" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18192,11 +18574,19 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J493" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18225,11 +18615,19 @@
         <v>-9146664.130801659</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J494" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18258,11 +18656,19 @@
         <v>-9138451.694501659</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="J495" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18291,11 +18697,19 @@
         <v>-9523652.985501658</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="J496" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18324,11 +18738,19 @@
         <v>-9561750.298501657</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J497" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18357,11 +18779,19 @@
         <v>-9565742.178801658</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J498" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18390,11 +18820,19 @@
         <v>-9565242.178801658</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J499" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18423,11 +18861,19 @@
         <v>-9565252.178801658</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="J500" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18456,11 +18902,19 @@
         <v>-9565220.178801658</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J501" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18489,11 +18943,19 @@
         <v>-9565220.178801658</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J502" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18522,11 +18984,19 @@
         <v>-9565180.560301658</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J503" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18555,11 +19025,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="J504" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18588,11 +19066,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J505" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18621,11 +19107,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J506" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18654,11 +19148,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J507" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18687,11 +19189,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J508" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18720,11 +19230,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J509" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18753,11 +19271,19 @@
         <v>-9565190.560301658</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J510" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18786,11 +19312,19 @@
         <v>-9545283.848001657</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J511" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18819,11 +19353,19 @@
         <v>-9553557.517901657</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J512" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18852,11 +19394,19 @@
         <v>-9904514.495301656</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J513" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18885,11 +19435,19 @@
         <v>-10259292.60450166</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J514" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18918,11 +19476,19 @@
         <v>-10581668.57200166</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J515" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18951,15 +19517,17 @@
         <v>-10683328.93010166</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>7.11</v>
       </c>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L516" t="n">
@@ -18990,12 +19558,14 @@
         <v>-11116137.06290166</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I517" t="n">
         <v>7.08</v>
       </c>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19029,12 +19599,14 @@
         <v>-13638465.95200166</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I518" t="n">
         <v>7.07</v>
       </c>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19068,12 +19640,14 @@
         <v>-13465540.29400166</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I519" t="n">
         <v>7.04</v>
       </c>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19107,12 +19681,14 @@
         <v>-13465540.29400166</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I520" t="n">
         <v>7.07</v>
       </c>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19146,10 +19722,14 @@
         <v>-13422603.59000166</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="J521" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19183,12 +19763,14 @@
         <v>-13269990.64230166</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I522" t="n">
         <v>7.1</v>
       </c>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19222,12 +19804,14 @@
         <v>-13267844.09420166</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>7.12</v>
       </c>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19261,12 +19845,14 @@
         <v>-13328711.00160166</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>7.17</v>
       </c>
-      <c r="J524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19300,12 +19886,14 @@
         <v>-13239151.33190166</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>7.13</v>
       </c>
-      <c r="J525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19339,12 +19927,14 @@
         <v>-13097740.13470166</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>7.21</v>
       </c>
-      <c r="J526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19378,12 +19968,14 @@
         <v>-13392218.13470166</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>7.23</v>
       </c>
-      <c r="J527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19417,12 +20009,14 @@
         <v>-13392218.13470166</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I528" t="n">
         <v>7.21</v>
       </c>
-      <c r="J528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19456,12 +20050,14 @@
         <v>-13392208.13470166</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I529" t="n">
         <v>7.21</v>
       </c>
-      <c r="J529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19495,12 +20091,14 @@
         <v>-13379766.13470166</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I530" t="n">
         <v>7.23</v>
       </c>
-      <c r="J530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19534,12 +20132,14 @@
         <v>-13379766.13470166</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I531" t="n">
         <v>7.34</v>
       </c>
-      <c r="J531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19573,12 +20173,14 @@
         <v>-13669766.13470166</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I532" t="n">
         <v>7.34</v>
       </c>
-      <c r="J532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19612,12 +20214,14 @@
         <v>-13379766.13470166</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I533" t="n">
         <v>7.18</v>
       </c>
-      <c r="J533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19651,10 +20255,14 @@
         <v>-12781990.13470166</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J534" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19688,10 +20296,14 @@
         <v>-12781990.13470166</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="J535" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19725,12 +20337,12 @@
         <v>-13103639.05200166</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19764,12 +20376,14 @@
         <v>-13103629.05200166</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I537" t="n">
         <v>7.15</v>
       </c>
-      <c r="J537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19803,12 +20417,14 @@
         <v>-13103629.05200166</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I538" t="n">
         <v>7.28</v>
       </c>
-      <c r="J538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19842,12 +20458,14 @@
         <v>-13246964.81620166</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I539" t="n">
         <v>7.28</v>
       </c>
-      <c r="J539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19881,12 +20499,14 @@
         <v>-13246551.59310166</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I540" t="n">
         <v>7.16</v>
       </c>
-      <c r="J540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19920,12 +20540,14 @@
         <v>-13499631.32390166</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I541" t="n">
         <v>7.26</v>
       </c>
-      <c r="J541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19959,12 +20581,14 @@
         <v>-13499631.32390166</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>7.16</v>
       </c>
-      <c r="J542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19998,12 +20622,14 @@
         <v>-13499621.32390166</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>7.16</v>
       </c>
-      <c r="J543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20037,10 +20663,14 @@
         <v>-13499678.11060166</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J544" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20074,10 +20704,14 @@
         <v>-13539764.77970166</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J545" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20111,12 +20745,14 @@
         <v>-13539774.77970166</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>7.16</v>
       </c>
-      <c r="J546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20150,12 +20786,14 @@
         <v>-13539774.77970166</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>7.15</v>
       </c>
-      <c r="J547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20189,12 +20827,14 @@
         <v>-13599401.69230166</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>7.15</v>
       </c>
-      <c r="J548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20228,12 +20868,14 @@
         <v>-13599401.69230166</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>7.14</v>
       </c>
-      <c r="J549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20267,12 +20909,14 @@
         <v>-13595032.15990166</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>7.14</v>
       </c>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20306,12 +20950,14 @@
         <v>-13595014.15990166</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>7.15</v>
       </c>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20345,12 +20991,14 @@
         <v>-13595025.15990166</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>7.2</v>
       </c>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20384,12 +21032,14 @@
         <v>-13595025.15990166</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>7.19</v>
       </c>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20423,12 +21073,14 @@
         <v>-13421602.89130166</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>7.19</v>
       </c>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20462,12 +21114,14 @@
         <v>-13663343.20960166</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I555" t="n">
         <v>7.2</v>
       </c>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20501,12 +21155,14 @@
         <v>-13663343.20960166</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I556" t="n">
         <v>7.16</v>
       </c>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20540,10 +21196,14 @@
         <v>-13663333.20960166</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="J557" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20577,12 +21237,14 @@
         <v>-13813628.74280166</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>7.22</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20616,12 +21278,14 @@
         <v>-13813782.74280166</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>7.21</v>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20655,12 +21319,14 @@
         <v>-13813782.74280166</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>7.14</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20694,12 +21360,14 @@
         <v>-13813739.74280166</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>7.14</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20733,12 +21401,14 @@
         <v>-13941572.80530166</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>7.16</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20772,12 +21442,14 @@
         <v>-13941535.30530166</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>7.13</v>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20811,12 +21483,14 @@
         <v>-13941535.30530166</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>7.19</v>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20850,12 +21524,14 @@
         <v>-13941557.30530166</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>7.19</v>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20889,12 +21565,14 @@
         <v>-13941557.30530166</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>7.18</v>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20928,12 +21606,14 @@
         <v>-13468955.65380166</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I567" t="n">
         <v>7.18</v>
       </c>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20967,12 +21647,12 @@
         <v>-13585270.50030166</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
-      </c>
-      <c r="I568" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J568" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21006,12 +21686,12 @@
         <v>-13578243.06910166</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
-      </c>
-      <c r="I569" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21045,12 +21725,12 @@
         <v>-13466212.55300166</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
-      </c>
-      <c r="I570" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21087,7 +21767,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21121,12 +21803,12 @@
         <v>-10051293.76410165</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
-      </c>
-      <c r="I572" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21160,12 +21842,12 @@
         <v>-9244797.513101654</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
-      </c>
-      <c r="I573" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21199,12 +21881,12 @@
         <v>-9349980.172201654</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21238,12 +21920,12 @@
         <v>-9365084.831301654</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
-      </c>
-      <c r="I575" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21277,12 +21959,12 @@
         <v>-9482210.782301653</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
-      </c>
-      <c r="I576" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21316,12 +21998,12 @@
         <v>-9671665.075901654</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
-      </c>
-      <c r="I577" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21355,12 +22037,12 @@
         <v>-9635082.619601654</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
-      </c>
-      <c r="I578" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J578" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21394,12 +22076,12 @@
         <v>-9635092.619601654</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21433,12 +22115,12 @@
         <v>-9615484.375601653</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="J580" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21472,12 +22154,12 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
-      </c>
-      <c r="I581" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21511,12 +22193,12 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
-      </c>
-      <c r="I582" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21550,12 +22232,12 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
-      </c>
-      <c r="I583" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J583" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21589,12 +22271,12 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
-      </c>
-      <c r="I584" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21628,12 +22310,12 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
-      </c>
-      <c r="I585" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21667,12 +22349,14 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>7.23</v>
       </c>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21706,12 +22390,12 @@
         <v>-9878104.425801653</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
-      </c>
-      <c r="I587" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J587" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21745,12 +22429,12 @@
         <v>-10002434.99810165</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J588" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21784,12 +22468,12 @@
         <v>-10002014.99810165</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
-      </c>
-      <c r="I589" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="J589" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21823,12 +22507,12 @@
         <v>-9877230.652201654</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
-      </c>
-      <c r="I590" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21865,7 +22549,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21902,7 +22588,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21939,7 +22627,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21976,7 +22666,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22013,7 +22705,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22050,7 +22744,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22087,7 +22783,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22121,12 +22819,12 @@
         <v>-9119874.469624994</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
-      </c>
-      <c r="I598" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22163,7 +22861,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22200,7 +22900,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22237,7 +22939,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22271,10 +22975,14 @@
         <v>-9517485.775824996</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J602" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22308,10 +23016,14 @@
         <v>-9517485.775824996</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="J603" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22345,10 +23057,14 @@
         <v>-9447352.135524996</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="J604" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22385,7 +23101,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22422,7 +23140,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22456,12 +23176,12 @@
         <v>-9828513.405724995</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22498,7 +23218,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22535,7 +23257,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22572,7 +23296,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22609,7 +23335,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22646,7 +23374,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22683,7 +23413,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22720,7 +23452,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22757,7 +23491,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22794,7 +23530,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22831,7 +23569,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22868,7 +23608,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22905,7 +23647,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22942,7 +23686,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22979,7 +23725,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23016,7 +23764,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23053,7 +23803,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23090,7 +23842,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23127,7 +23881,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23164,7 +23920,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23201,7 +23959,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23238,7 +23998,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23275,7 +24037,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23312,7 +24076,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23349,7 +24115,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23386,7 +24154,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23423,7 +24193,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23460,7 +24232,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23497,7 +24271,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23534,7 +24310,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23571,7 +24349,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23608,7 +24388,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23645,7 +24427,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23682,7 +24466,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23719,7 +24505,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23756,7 +24544,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23793,7 +24583,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23830,7 +24622,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23867,7 +24661,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23904,7 +24700,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23941,7 +24739,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23978,7 +24778,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24015,7 +24817,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24052,7 +24856,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24089,7 +24895,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24126,7 +24934,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24163,7 +24973,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24200,7 +25012,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24237,7 +25051,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24274,7 +25090,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24311,7 +25129,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24348,7 +25168,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24385,7 +25207,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24422,7 +25246,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24459,7 +25285,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24496,7 +25324,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24533,7 +25363,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24570,7 +25402,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24607,7 +25441,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24644,7 +25480,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24681,7 +25519,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24718,7 +25558,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24755,7 +25597,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24792,7 +25636,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24829,7 +25675,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24866,7 +25714,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24903,7 +25753,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24940,7 +25792,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24977,7 +25831,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25014,7 +25870,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25051,7 +25909,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25088,7 +25948,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25125,7 +25987,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25162,7 +26026,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25199,7 +26065,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25236,7 +26104,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25273,7 +26143,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25310,7 +26182,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25347,7 +26221,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25384,7 +26260,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25421,7 +26299,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25458,7 +26338,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25495,7 +26377,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25532,7 +26416,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25566,10 +26452,14 @@
         <v>-9858899.182497332</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J691" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25606,7 +26496,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25640,10 +26532,14 @@
         <v>-9667457.878197331</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J693" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25680,7 +26576,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25717,7 +26615,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25754,7 +26654,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25788,10 +26690,14 @@
         <v>-10496154.87359733</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J697" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25825,10 +26731,14 @@
         <v>-10167364.58459733</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="J698" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25862,10 +26772,14 @@
         <v>-10167364.58459733</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J699" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25899,10 +26813,14 @@
         <v>-9929696.62649733</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="J700" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25936,12 +26854,14 @@
         <v>-10228696.62649733</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>7.25</v>
       </c>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25975,12 +26895,14 @@
         <v>-10228696.62649733</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I702" t="n">
         <v>7.24</v>
       </c>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26014,10 +26936,14 @@
         <v>-8539513.33689733</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J703" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26051,12 +26977,12 @@
         <v>-8224156.15209733</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
-      </c>
-      <c r="I704" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J704" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26093,7 +27019,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26127,12 +27055,12 @@
         <v>-8731954.63559733</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
-      </c>
-      <c r="I706" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26166,12 +27094,14 @@
         <v>-8599785.48829733</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I707" t="n">
         <v>7.14</v>
       </c>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26205,12 +27135,14 @@
         <v>-7438835.90749733</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I708" t="n">
         <v>7.3</v>
       </c>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26244,12 +27176,12 @@
         <v>-7163804.74899733</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
-      </c>
-      <c r="I709" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="J709" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26286,7 +27218,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26323,7 +27257,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26360,7 +27296,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26397,7 +27335,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26434,7 +27374,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26471,7 +27413,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26508,7 +27452,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26545,7 +27491,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26582,7 +27530,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26616,16 +27566,20 @@
         <v>19952519.99713413</v>
       </c>
       <c r="H719" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>7.14</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L719" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
       <c r="M719" t="inlineStr"/>
     </row>
     <row r="720">
@@ -26651,11 +27605,17 @@
         <v>24593021.13634153</v>
       </c>
       <c r="H720" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26684,17 +27644,25 @@
         <v>29440966.58907109</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
+        <v>1.345140056022409</v>
+      </c>
+      <c r="M721" t="n">
+        <v>1.095305832147937</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest FZZ.xlsx
+++ b/BackTest/2019-10-27 BackTest FZZ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -7216,14 +7216,10 @@
         <v>-6720776.669510604</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="J207" t="n">
-        <v>7.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7253,19 +7249,11 @@
         <v>-6758700.373010604</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="J208" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7294,19 +7282,11 @@
         <v>-6758700.373010604</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="J209" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7335,19 +7315,11 @@
         <v>-6686019.527010604</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="J210" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7376,19 +7348,11 @@
         <v>-6677875.361310604</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="J211" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7417,19 +7381,11 @@
         <v>-6643144.760710604</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="J212" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7458,19 +7414,11 @@
         <v>-6642741.117010605</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J213" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7499,19 +7447,11 @@
         <v>-6525184.843310605</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="J214" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7540,19 +7480,11 @@
         <v>-6525184.843310605</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J215" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7581,19 +7513,11 @@
         <v>-6525173.843310605</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J216" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7622,19 +7546,11 @@
         <v>-6525173.843310605</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J217" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7666,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7705,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7744,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7783,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7822,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7861,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7900,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7939,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7978,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8014,19 +7876,11 @@
         <v>-6525311.287710605</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J227" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8058,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8097,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8136,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8175,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8214,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8250,19 +8074,11 @@
         <v>-6667576.049310604</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="J233" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8294,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8330,19 +8140,11 @@
         <v>-6814266.810510605</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J235" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8374,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8410,19 +8206,11 @@
         <v>-6643199.586010605</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="J237" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8454,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8490,19 +8272,11 @@
         <v>-6643199.586010605</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J239" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8534,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8573,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8612,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8648,19 +8404,11 @@
         <v>-6625686.051010605</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="J243" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8689,19 +8437,11 @@
         <v>-6648686.051010605</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J244" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8730,19 +8470,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J245" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8771,19 +8503,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J246" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8812,19 +8536,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J247" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8853,19 +8569,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J248" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8894,19 +8602,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J249" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8935,19 +8635,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J250" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8976,19 +8668,11 @@
         <v>-6618686.051010605</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J251" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9017,19 +8701,11 @@
         <v>-6952096.591010605</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="J252" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9058,19 +8734,11 @@
         <v>-6914801.334510605</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="J253" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9105,13 +8773,9 @@
         <v>7.16</v>
       </c>
       <c r="J254" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>7.16</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9146,11 +8810,11 @@
         <v>7.18</v>
       </c>
       <c r="J255" t="n">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L255" t="n">
@@ -9187,11 +8851,11 @@
         <v>7.19</v>
       </c>
       <c r="J256" t="n">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L256" t="n">
@@ -9228,13 +8892,9 @@
         <v>7.22</v>
       </c>
       <c r="J257" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>7.22</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9269,11 +8929,11 @@
         <v>7.25</v>
       </c>
       <c r="J258" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
@@ -9310,11 +8970,11 @@
         <v>7.28</v>
       </c>
       <c r="J259" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L259" t="n">
@@ -9345,19 +9005,11 @@
         <v>-6413758.196910605</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="J260" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9386,19 +9038,11 @@
         <v>-6325914.005710605</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J261" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9427,19 +9071,11 @@
         <v>-6260991.647010605</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J262" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9468,19 +9104,11 @@
         <v>-6260991.647010605</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J263" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9509,19 +9137,11 @@
         <v>-6668194.144410605</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="J264" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9553,14 +9173,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9592,14 +9206,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9631,14 +9239,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9670,14 +9272,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9709,14 +9305,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9748,14 +9338,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9787,14 +9371,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9826,14 +9404,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9865,14 +9437,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9904,14 +9470,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9943,14 +9503,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9982,14 +9536,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10021,14 +9569,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10060,14 +9602,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10099,14 +9635,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9668,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10177,14 +9701,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10216,14 +9734,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10255,14 +9767,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10294,14 +9800,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10333,14 +9833,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10372,14 +9866,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10411,14 +9899,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10447,19 +9929,11 @@
         <v>-6865677.636210606</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="J288" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10491,14 +9965,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10530,14 +9998,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10569,14 +10031,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10608,14 +10064,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10647,14 +10097,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10686,14 +10130,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10725,14 +10163,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10764,14 +10196,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10803,14 +10229,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10842,14 +10262,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10881,14 +10295,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +10328,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10959,14 +10361,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10998,14 +10394,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11037,14 +10427,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +10460,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11115,14 +10493,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +10526,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +10559,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +10592,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +10625,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +10658,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +10691,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +10724,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +10757,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11466,14 +10790,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11505,14 +10823,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11544,14 +10856,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +10889,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11622,14 +10922,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11661,14 +10955,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11700,14 +10988,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11739,14 +11021,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11778,14 +11054,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11817,14 +11087,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11856,14 +11120,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11895,14 +11153,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11934,14 +11186,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11973,14 +11219,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12012,14 +11252,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12051,14 +11285,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12090,14 +11318,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12129,14 +11351,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12168,14 +11384,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12207,14 +11417,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12246,14 +11450,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12285,14 +11483,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12324,14 +11516,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12363,14 +11549,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12402,14 +11582,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12441,14 +11615,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12480,14 +11648,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12519,14 +11681,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12558,14 +11714,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12597,14 +11747,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12636,14 +11780,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12675,14 +11813,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12714,14 +11846,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12753,14 +11879,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12792,14 +11912,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12831,14 +11945,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12870,14 +11978,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12909,14 +12011,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12948,14 +12044,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12987,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13026,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13065,14 +12143,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13104,14 +12176,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13143,14 +12209,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13182,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13221,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13260,14 +12308,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13299,14 +12341,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13338,14 +12374,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13377,14 +12407,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13416,14 +12440,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13455,14 +12473,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13494,14 +12506,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13533,14 +12539,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13572,14 +12572,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13611,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13650,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13689,14 +12671,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13728,14 +12704,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13767,14 +12737,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13806,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13845,14 +12803,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13884,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13923,14 +12869,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13962,14 +12902,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14001,14 +12935,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14040,14 +12968,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14079,14 +13001,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14118,14 +13034,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14157,14 +13067,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14196,14 +13100,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14235,14 +13133,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14274,14 +13166,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14313,14 +13199,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14352,14 +13232,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14391,14 +13265,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14430,14 +13298,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14469,14 +13331,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14508,14 +13364,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14547,14 +13397,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14586,14 +13430,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14625,14 +13463,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14664,14 +13496,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14703,14 +13529,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14742,14 +13562,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14781,14 +13595,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14820,14 +13628,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14862,13 +13664,9 @@
         <v>7.22</v>
       </c>
       <c r="J401" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>7.22</v>
+      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14903,11 +13701,11 @@
         <v>7.22</v>
       </c>
       <c r="J402" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L402" t="n">
@@ -14944,7 +13742,7 @@
         <v>7.26</v>
       </c>
       <c r="J403" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14985,7 +13783,7 @@
         <v>7.26</v>
       </c>
       <c r="J404" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -15024,7 +13822,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -15063,7 +13861,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -15102,7 +13900,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -15141,7 +13939,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15180,7 +13978,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15219,7 +14017,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15258,7 +14056,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15297,7 +14095,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15332,13 +14130,11 @@
         <v>-7596757.94340166</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>7.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15373,13 +14169,11 @@
         <v>-7595222.84420166</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15414,13 +14208,11 @@
         <v>-7595222.84420166</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>7.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15455,13 +14247,11 @@
         <v>-7594456.72060166</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>7.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15496,13 +14286,11 @@
         <v>-7594446.72060166</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>7.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15541,7 +14329,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15576,13 +14364,11 @@
         <v>-7595057.179801661</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>7.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15621,7 +14407,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15660,7 +14446,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15695,13 +14481,11 @@
         <v>-7601334.78250166</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>7.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15736,13 +14520,11 @@
         <v>-7601334.78250166</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>7.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15777,13 +14559,11 @@
         <v>-7571137.32590166</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>7.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15818,13 +14598,11 @@
         <v>-7573458.62320166</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>7.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15865,7 +14643,7 @@
         <v>7.22</v>
       </c>
       <c r="J426" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15900,13 +14678,11 @@
         <v>-7573448.62320166</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>7.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15941,13 +14717,11 @@
         <v>-7573458.62320166</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>7.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15982,13 +14756,11 @@
         <v>-7723026.92300166</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>7.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -16023,13 +14795,11 @@
         <v>-7718489.03500166</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>7.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -16064,13 +14834,11 @@
         <v>-7718589.03500166</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -16111,7 +14879,7 @@
         <v>7.26</v>
       </c>
       <c r="J432" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -16146,13 +14914,11 @@
         <v>-7764729.15980166</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -16191,7 +14957,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16232,7 +14998,7 @@
         <v>7.26</v>
       </c>
       <c r="J435" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16273,7 +15039,7 @@
         <v>7.26</v>
       </c>
       <c r="J436" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16308,13 +15074,11 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>7.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16349,13 +15113,11 @@
         <v>-7707235.98210166</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>7.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16390,13 +15152,11 @@
         <v>-7707215.98210166</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>7.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16431,13 +15191,11 @@
         <v>-7707215.98210166</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16476,7 +15234,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16515,7 +15273,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16554,7 +15312,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16593,7 +15351,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16628,11 +15386,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J445" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16667,11 +15427,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J446" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16712,7 +15474,7 @@
         <v>7.29</v>
       </c>
       <c r="J447" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16747,11 +15509,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J448" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16792,7 +15556,7 @@
         <v>7.29</v>
       </c>
       <c r="J449" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16827,13 +15591,11 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>7.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16868,11 +15630,13 @@
         <v>-7721301.83760166</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J451" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16913,7 +15677,7 @@
         <v>7.29</v>
       </c>
       <c r="J452" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16954,7 +15718,7 @@
         <v>7.29</v>
       </c>
       <c r="J453" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16995,7 +15759,7 @@
         <v>7.29</v>
       </c>
       <c r="J454" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -17030,11 +15794,13 @@
         <v>-7727121.83760166</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J455" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -17075,7 +15841,7 @@
         <v>7.24</v>
       </c>
       <c r="J456" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -17116,7 +15882,7 @@
         <v>7.28</v>
       </c>
       <c r="J457" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -17157,7 +15923,7 @@
         <v>7.29</v>
       </c>
       <c r="J458" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -17198,7 +15964,7 @@
         <v>7.29</v>
       </c>
       <c r="J459" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17239,7 +16005,7 @@
         <v>7.26</v>
       </c>
       <c r="J460" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17274,11 +16040,13 @@
         <v>-7731196.81800166</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J461" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17319,7 +16087,7 @@
         <v>7.28</v>
       </c>
       <c r="J462" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17360,7 +16128,7 @@
         <v>7.28</v>
       </c>
       <c r="J463" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17395,11 +16163,13 @@
         <v>-7731270.81800166</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J464" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17440,7 +16210,7 @@
         <v>7.25</v>
       </c>
       <c r="J465" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17481,7 +16251,7 @@
         <v>7.28</v>
       </c>
       <c r="J466" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17522,7 +16292,7 @@
         <v>7.28</v>
       </c>
       <c r="J467" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17563,7 +16333,7 @@
         <v>7.28</v>
       </c>
       <c r="J468" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17604,7 +16374,7 @@
         <v>7.29</v>
       </c>
       <c r="J469" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17645,7 +16415,7 @@
         <v>7.29</v>
       </c>
       <c r="J470" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17686,7 +16456,7 @@
         <v>7.24</v>
       </c>
       <c r="J471" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17727,7 +16497,7 @@
         <v>7.29</v>
       </c>
       <c r="J472" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17768,7 +16538,7 @@
         <v>7.29</v>
       </c>
       <c r="J473" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17809,7 +16579,7 @@
         <v>7.29</v>
       </c>
       <c r="J474" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17850,7 +16620,7 @@
         <v>7.24</v>
       </c>
       <c r="J475" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17891,7 +16661,7 @@
         <v>7.29</v>
       </c>
       <c r="J476" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17932,7 +16702,7 @@
         <v>7.29</v>
       </c>
       <c r="J477" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17973,7 +16743,7 @@
         <v>7.3</v>
       </c>
       <c r="J478" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -18014,7 +16784,7 @@
         <v>7.3</v>
       </c>
       <c r="J479" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -18055,7 +16825,7 @@
         <v>7.3</v>
       </c>
       <c r="J480" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -18096,7 +16866,7 @@
         <v>7.35</v>
       </c>
       <c r="J481" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -18131,11 +16901,13 @@
         <v>-7750886.44520166</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>7.31</v>
+      </c>
       <c r="J482" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -18176,7 +16948,7 @@
         <v>7.35</v>
       </c>
       <c r="J483" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -18211,11 +16983,13 @@
         <v>-9146684.130801659</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J484" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -18250,11 +17024,13 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>7.24</v>
+      </c>
       <c r="J485" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18289,11 +17065,13 @@
         <v>-9146674.130801659</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J486" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18334,7 +17112,7 @@
         <v>7.25</v>
       </c>
       <c r="J487" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18375,7 +17153,7 @@
         <v>7.25</v>
       </c>
       <c r="J488" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18416,7 +17194,7 @@
         <v>7.25</v>
       </c>
       <c r="J489" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18457,7 +17235,7 @@
         <v>7.25</v>
       </c>
       <c r="J490" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18498,7 +17276,7 @@
         <v>7.28</v>
       </c>
       <c r="J491" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18539,7 +17317,7 @@
         <v>7.28</v>
       </c>
       <c r="J492" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18580,7 +17358,7 @@
         <v>7.28</v>
       </c>
       <c r="J493" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18621,7 +17399,7 @@
         <v>7.28</v>
       </c>
       <c r="J494" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18662,7 +17440,7 @@
         <v>7.28</v>
       </c>
       <c r="J495" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18703,7 +17481,7 @@
         <v>7.29</v>
       </c>
       <c r="J496" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18744,7 +17522,7 @@
         <v>7.25</v>
       </c>
       <c r="J497" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18785,7 +17563,7 @@
         <v>7.24</v>
       </c>
       <c r="J498" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18826,7 +17604,7 @@
         <v>7.23</v>
       </c>
       <c r="J499" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18867,7 +17645,7 @@
         <v>7.32</v>
       </c>
       <c r="J500" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18908,7 +17686,7 @@
         <v>7.24</v>
       </c>
       <c r="J501" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18949,7 +17727,7 @@
         <v>7.25</v>
       </c>
       <c r="J502" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18990,7 +17768,7 @@
         <v>7.25</v>
       </c>
       <c r="J503" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -19031,7 +17809,7 @@
         <v>7.34</v>
       </c>
       <c r="J504" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -19072,7 +17850,7 @@
         <v>7.25</v>
       </c>
       <c r="J505" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -19113,7 +17891,7 @@
         <v>7.25</v>
       </c>
       <c r="J506" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -19154,7 +17932,7 @@
         <v>7.25</v>
       </c>
       <c r="J507" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -19195,7 +17973,7 @@
         <v>7.25</v>
       </c>
       <c r="J508" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -19236,7 +18014,7 @@
         <v>7.25</v>
       </c>
       <c r="J509" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -19277,7 +18055,7 @@
         <v>7.25</v>
       </c>
       <c r="J510" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -19318,7 +18096,7 @@
         <v>7.25</v>
       </c>
       <c r="J511" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19359,7 +18137,7 @@
         <v>7.3</v>
       </c>
       <c r="J512" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19400,7 +18178,7 @@
         <v>7.26</v>
       </c>
       <c r="J513" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19441,7 +18219,7 @@
         <v>7.2</v>
       </c>
       <c r="J514" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19482,7 +18260,7 @@
         <v>7.15</v>
       </c>
       <c r="J515" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19523,7 +18301,7 @@
         <v>7.11</v>
       </c>
       <c r="J516" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19564,7 +18342,7 @@
         <v>7.08</v>
       </c>
       <c r="J517" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19605,7 +18383,7 @@
         <v>7.07</v>
       </c>
       <c r="J518" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19646,7 +18424,7 @@
         <v>7.04</v>
       </c>
       <c r="J519" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19687,7 +18465,7 @@
         <v>7.07</v>
       </c>
       <c r="J520" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19728,7 +18506,7 @@
         <v>7.07</v>
       </c>
       <c r="J521" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19769,7 +18547,7 @@
         <v>7.1</v>
       </c>
       <c r="J522" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19810,7 +18588,7 @@
         <v>7.12</v>
       </c>
       <c r="J523" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19851,7 +18629,7 @@
         <v>7.17</v>
       </c>
       <c r="J524" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19892,7 +18670,7 @@
         <v>7.13</v>
       </c>
       <c r="J525" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19933,7 +18711,7 @@
         <v>7.21</v>
       </c>
       <c r="J526" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19974,7 +18752,7 @@
         <v>7.23</v>
       </c>
       <c r="J527" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -20015,7 +18793,7 @@
         <v>7.21</v>
       </c>
       <c r="J528" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -20056,7 +18834,7 @@
         <v>7.21</v>
       </c>
       <c r="J529" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -20097,7 +18875,7 @@
         <v>7.23</v>
       </c>
       <c r="J530" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -20138,7 +18916,7 @@
         <v>7.34</v>
       </c>
       <c r="J531" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -20179,7 +18957,7 @@
         <v>7.34</v>
       </c>
       <c r="J532" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -20220,7 +18998,7 @@
         <v>7.18</v>
       </c>
       <c r="J533" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -20261,7 +19039,7 @@
         <v>7.3</v>
       </c>
       <c r="J534" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -20302,7 +19080,7 @@
         <v>7.31</v>
       </c>
       <c r="J535" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -20337,11 +19115,13 @@
         <v>-13103639.05200166</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>7.31</v>
+      </c>
       <c r="J536" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20382,7 +19162,7 @@
         <v>7.15</v>
       </c>
       <c r="J537" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20423,7 +19203,7 @@
         <v>7.28</v>
       </c>
       <c r="J538" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20464,7 +19244,7 @@
         <v>7.28</v>
       </c>
       <c r="J539" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20505,7 +19285,7 @@
         <v>7.16</v>
       </c>
       <c r="J540" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20546,7 +19326,7 @@
         <v>7.26</v>
       </c>
       <c r="J541" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20587,7 +19367,7 @@
         <v>7.16</v>
       </c>
       <c r="J542" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20628,7 +19408,7 @@
         <v>7.16</v>
       </c>
       <c r="J543" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20669,7 +19449,7 @@
         <v>7.23</v>
       </c>
       <c r="J544" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20710,7 +19490,7 @@
         <v>7.22</v>
       </c>
       <c r="J545" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20751,7 +19531,7 @@
         <v>7.16</v>
       </c>
       <c r="J546" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20792,7 +19572,7 @@
         <v>7.15</v>
       </c>
       <c r="J547" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20833,7 +19613,7 @@
         <v>7.15</v>
       </c>
       <c r="J548" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20874,7 +19654,7 @@
         <v>7.14</v>
       </c>
       <c r="J549" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20915,7 +19695,7 @@
         <v>7.14</v>
       </c>
       <c r="J550" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20956,7 +19736,7 @@
         <v>7.15</v>
       </c>
       <c r="J551" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20997,7 +19777,7 @@
         <v>7.2</v>
       </c>
       <c r="J552" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -21038,7 +19818,7 @@
         <v>7.19</v>
       </c>
       <c r="J553" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -21079,7 +19859,7 @@
         <v>7.19</v>
       </c>
       <c r="J554" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -21120,7 +19900,7 @@
         <v>7.2</v>
       </c>
       <c r="J555" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -21161,7 +19941,7 @@
         <v>7.16</v>
       </c>
       <c r="J556" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -21202,7 +19982,7 @@
         <v>7.16</v>
       </c>
       <c r="J557" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -21243,7 +20023,7 @@
         <v>7.22</v>
       </c>
       <c r="J558" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -21284,7 +20064,7 @@
         <v>7.21</v>
       </c>
       <c r="J559" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -21325,7 +20105,7 @@
         <v>7.14</v>
       </c>
       <c r="J560" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -21366,7 +20146,7 @@
         <v>7.14</v>
       </c>
       <c r="J561" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -21407,7 +20187,7 @@
         <v>7.16</v>
       </c>
       <c r="J562" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21448,7 +20228,7 @@
         <v>7.13</v>
       </c>
       <c r="J563" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21489,7 +20269,7 @@
         <v>7.19</v>
       </c>
       <c r="J564" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21530,7 +20310,7 @@
         <v>7.19</v>
       </c>
       <c r="J565" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21571,7 +20351,7 @@
         <v>7.18</v>
       </c>
       <c r="J566" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21612,7 +20392,7 @@
         <v>7.18</v>
       </c>
       <c r="J567" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21647,11 +20427,13 @@
         <v>-13585270.50030166</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J568" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21686,11 +20468,13 @@
         <v>-13578243.06910166</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>7.23</v>
+      </c>
       <c r="J569" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21725,11 +20509,13 @@
         <v>-13466212.55300166</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>7.24</v>
+      </c>
       <c r="J570" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21764,11 +20550,13 @@
         <v>-11688349.61810165</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>7.28</v>
+      </c>
       <c r="J571" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21803,11 +20591,13 @@
         <v>-10051293.76410165</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>7.35</v>
+      </c>
       <c r="J572" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21842,11 +20632,13 @@
         <v>-9244797.513101654</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>7.36</v>
+      </c>
       <c r="J573" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21881,11 +20673,13 @@
         <v>-9349980.172201654</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>7.45</v>
+      </c>
       <c r="J574" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21924,7 +20718,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21963,7 +20757,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -22002,7 +20796,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -22037,11 +20831,13 @@
         <v>-9635082.619601654</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>7.17</v>
+      </c>
       <c r="J578" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -22076,11 +20872,13 @@
         <v>-9635092.619601654</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J579" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -22115,11 +20913,13 @@
         <v>-9615484.375601653</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J580" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -22154,11 +20954,13 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>7.29</v>
+      </c>
       <c r="J581" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -22193,11 +20995,13 @@
         <v>-9615684.155401653</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J582" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -22232,11 +21036,13 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J583" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -22271,11 +21077,13 @@
         <v>-9879672.875701653</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J584" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -22310,11 +21118,13 @@
         <v>-9879682.875701653</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J585" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -22355,7 +21165,7 @@
         <v>7.23</v>
       </c>
       <c r="J586" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -22390,11 +21200,13 @@
         <v>-9878104.425801653</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>7.23</v>
+      </c>
       <c r="J587" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22429,11 +21241,13 @@
         <v>-10002434.99810165</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>7.24</v>
+      </c>
       <c r="J588" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22468,11 +21282,13 @@
         <v>-10002014.99810165</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J589" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22507,11 +21323,13 @@
         <v>-9877230.652201654</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>7.23</v>
+      </c>
       <c r="J590" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22546,11 +21364,13 @@
         <v>-9894803.496601654</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>7.3</v>
+      </c>
       <c r="J591" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22585,11 +21405,13 @@
         <v>-9908497.962501654</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J592" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22624,11 +21446,13 @@
         <v>-9716633.379201654</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>7.23</v>
+      </c>
       <c r="J593" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22663,11 +21487,13 @@
         <v>-9712623.270101655</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>7.27</v>
+      </c>
       <c r="J594" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22702,11 +21528,13 @@
         <v>-9548417.197501656</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>7.31</v>
+      </c>
       <c r="J595" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22741,11 +21569,13 @@
         <v>-9387373.625201656</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>7.37</v>
+      </c>
       <c r="J596" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22784,7 +21614,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22819,11 +21649,13 @@
         <v>-9119874.469624994</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>7.31</v>
+      </c>
       <c r="J598" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22862,7 +21694,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22901,7 +21733,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22940,7 +21772,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22975,13 +21807,11 @@
         <v>-9517485.775824996</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>7.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -23016,13 +21846,11 @@
         <v>-9517485.775824996</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>7.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -23057,13 +21885,11 @@
         <v>-9447352.135524996</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>7.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -23102,7 +21928,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -23141,7 +21967,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -23180,7 +22006,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -23219,7 +22045,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -23258,7 +22084,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -23297,7 +22123,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -23336,7 +22162,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -23375,7 +22201,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -23414,7 +22240,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -23453,7 +22279,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -23492,7 +22318,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -23531,7 +22357,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -23570,7 +22396,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23609,7 +22435,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23648,7 +22474,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23687,7 +22513,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23726,7 +22552,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -23765,7 +22591,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -23804,7 +22630,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -23843,7 +22669,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -23882,7 +22708,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -23921,7 +22747,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -23960,7 +22786,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -23999,7 +22825,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -24038,7 +22864,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -24077,7 +22903,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -24116,7 +22942,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -24155,7 +22981,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -24194,7 +23020,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -24233,7 +23059,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -24272,7 +23098,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -24311,7 +23137,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -24350,7 +23176,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -24389,7 +23215,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -24428,7 +23254,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -24467,7 +23293,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -24506,7 +23332,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -24545,7 +23371,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -24584,7 +23410,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -24623,7 +23449,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -24662,7 +23488,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -24701,7 +23527,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -24740,7 +23566,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -24779,7 +23605,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -24818,7 +23644,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -24857,7 +23683,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -24896,7 +23722,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -24935,7 +23761,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -24974,7 +23800,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -25013,7 +23839,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -25052,7 +23878,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -25091,7 +23917,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -25130,7 +23956,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -25169,7 +23995,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -25208,7 +24034,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -25247,7 +24073,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -25286,7 +24112,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -25325,7 +24151,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -25364,7 +24190,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -25403,7 +24229,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -25442,7 +24268,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -25481,7 +24307,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -25520,7 +24346,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -25559,7 +24385,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -25598,7 +24424,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -25637,7 +24463,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -25676,7 +24502,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -25715,7 +24541,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -25754,7 +24580,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -25793,7 +24619,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -25832,7 +24658,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -25871,7 +24697,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -25910,7 +24736,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -25949,7 +24775,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -25988,7 +24814,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -26027,7 +24853,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -26066,7 +24892,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -26105,7 +24931,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -26144,7 +24970,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -26183,7 +25009,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -26222,7 +25048,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -26261,7 +25087,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -26300,7 +25126,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -26339,7 +25165,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -26378,7 +25204,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -26417,7 +25243,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -26458,7 +25284,7 @@
         <v>7.25</v>
       </c>
       <c r="J691" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -26493,11 +25319,13 @@
         <v>-9628737.487397332</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J692" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -26538,7 +25366,7 @@
         <v>7.25</v>
       </c>
       <c r="J693" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -26573,11 +25401,13 @@
         <v>-9667457.878197331</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J694" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -26612,11 +25442,13 @@
         <v>-10009895.40529733</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>7.22</v>
+      </c>
       <c r="J695" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -26651,11 +25483,13 @@
         <v>-10226107.32729733</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J696" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -26696,7 +25530,7 @@
         <v>7.18</v>
       </c>
       <c r="J697" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -26737,7 +25571,7 @@
         <v>7.15</v>
       </c>
       <c r="J698" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -26778,7 +25612,7 @@
         <v>7.18</v>
       </c>
       <c r="J699" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -26819,7 +25653,7 @@
         <v>7.18</v>
       </c>
       <c r="J700" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -26860,7 +25694,7 @@
         <v>7.25</v>
       </c>
       <c r="J701" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -26901,7 +25735,7 @@
         <v>7.24</v>
       </c>
       <c r="J702" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -26942,7 +25776,7 @@
         <v>7.24</v>
       </c>
       <c r="J703" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -26977,11 +25811,13 @@
         <v>-8224156.15209733</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J704" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -27016,11 +25852,13 @@
         <v>-8604072.08249733</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>7.26</v>
+      </c>
       <c r="J705" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -27055,11 +25893,13 @@
         <v>-8731954.63559733</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>7.25</v>
+      </c>
       <c r="J706" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -27100,7 +25940,7 @@
         <v>7.14</v>
       </c>
       <c r="J707" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -27141,7 +25981,7 @@
         <v>7.3</v>
       </c>
       <c r="J708" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -27180,7 +26020,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -27219,7 +26059,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -27258,7 +26098,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -27297,7 +26137,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -27336,7 +26176,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -27375,7 +26215,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -27414,7 +26254,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -27453,7 +26293,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -27492,7 +26332,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -27531,7 +26371,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -27566,21 +26406,23 @@
         <v>19952519.99713413</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="n">
-        <v>7.14</v>
+        <v>7.22</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
+        <v>1.258157894736842</v>
+      </c>
+      <c r="M719" t="n">
+        <v>1.095305832147937</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -27605,17 +26447,11 @@
         <v>24593021.13634153</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -27647,22 +26483,14 @@
         <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
-        <v>1.345140056022409</v>
-      </c>
-      <c r="M721" t="n">
-        <v>1.095305832147937</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>